--- a/examples/data/batch_batch1_testing_batchdata_noisy.xlsx
+++ b/examples/data/batch_batch1_testing_batchdata_noisy.xlsx
@@ -463,13 +463,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2607118305826748</v>
+        <v>0.4916854829779206</v>
       </c>
       <c r="D2" t="n">
-        <v>86.58224122722923</v>
+        <v>51.53814122518933</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.194251745467877</v>
+        <v>0.1605476026824219</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1433229263445609</v>
+        <v>0.5903366173651952</v>
       </c>
       <c r="D3" t="n">
-        <v>86.30074735584871</v>
+        <v>47.04477903809251</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4760979816206624</v>
+        <v>0.2840161113617594</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3465224987268718</v>
+        <v>0.6482847852647085</v>
       </c>
       <c r="D4" t="n">
-        <v>82.40498098273099</v>
+        <v>47.05967344784042</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04617925570788317</v>
+        <v>0.5508174243493321</v>
       </c>
     </row>
     <row r="5">
@@ -514,13 +514,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6606286740243559</v>
+        <v>0.8139306930788575</v>
       </c>
       <c r="D5" t="n">
-        <v>81.35155381000143</v>
+        <v>42.7370915565283</v>
       </c>
       <c r="E5" t="n">
-        <v>1.086085773919071</v>
+        <v>1.254679736710638</v>
       </c>
     </row>
     <row r="6">
@@ -531,13 +531,13 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7072059114790494</v>
+        <v>1.221337463668168</v>
       </c>
       <c r="D6" t="n">
-        <v>76.9053271022166</v>
+        <v>38.64314332523863</v>
       </c>
       <c r="E6" t="n">
-        <v>1.275674131713703</v>
+        <v>2.187091025177575</v>
       </c>
     </row>
     <row r="7">
@@ -548,13 +548,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>1.281452089395786</v>
+        <v>1.560251443237467</v>
       </c>
       <c r="D7" t="n">
-        <v>67.92011851261924</v>
+        <v>33.47021790608454</v>
       </c>
       <c r="E7" t="n">
-        <v>2.284045568691468</v>
+        <v>3.106015921512773</v>
       </c>
     </row>
     <row r="8">
@@ -565,13 +565,13 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>1.757875618971923</v>
+        <v>2.039654110771267</v>
       </c>
       <c r="D8" t="n">
-        <v>61.07412900997206</v>
+        <v>25.64101013820287</v>
       </c>
       <c r="E8" t="n">
-        <v>3.924738434293051</v>
+        <v>4.333384461336562</v>
       </c>
     </row>
     <row r="9">
@@ -582,13 +582,13 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>2.475190580137981</v>
+        <v>2.559225855075067</v>
       </c>
       <c r="D9" t="n">
-        <v>49.72493395585144</v>
+        <v>20.2378741059077</v>
       </c>
       <c r="E9" t="n">
-        <v>6.049749363973344</v>
+        <v>5.017146462733881</v>
       </c>
     </row>
     <row r="10">
@@ -599,13 +599,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>3.735754587525885</v>
+        <v>2.754254870925581</v>
       </c>
       <c r="D10" t="n">
-        <v>35.34485309594061</v>
+        <v>15.09232158017083</v>
       </c>
       <c r="E10" t="n">
-        <v>8.530198545172324</v>
+        <v>5.989044024713238</v>
       </c>
     </row>
     <row r="11">
@@ -616,13 +616,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>4.532281842628445</v>
+        <v>3.144434948757379</v>
       </c>
       <c r="D11" t="n">
-        <v>22.68575716653009</v>
+        <v>10.00602065502239</v>
       </c>
       <c r="E11" t="n">
-        <v>10.05161169375461</v>
+        <v>6.722171313932866</v>
       </c>
     </row>
     <row r="12">
@@ -633,13 +633,13 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>5.148166713156415</v>
+        <v>3.453759085923031</v>
       </c>
       <c r="D12" t="n">
-        <v>13.48379381638977</v>
+        <v>7.036470305555672</v>
       </c>
       <c r="E12" t="n">
-        <v>12.63227643877123</v>
+        <v>7.295613231912729</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>5.514710387128434</v>
+        <v>3.692560634296318</v>
       </c>
       <c r="D13" t="n">
-        <v>6.446273358922222</v>
+        <v>3.973489613551741</v>
       </c>
       <c r="E13" t="n">
-        <v>13.57815389603109</v>
+        <v>7.912098565888122</v>
       </c>
     </row>
     <row r="14">
@@ -667,13 +667,13 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>5.890766284955653</v>
+        <v>3.763622124570412</v>
       </c>
       <c r="D14" t="n">
-        <v>1.808955719152385</v>
+        <v>1.528318616566812</v>
       </c>
       <c r="E14" t="n">
-        <v>13.81788816785999</v>
+        <v>8.124231356006836</v>
       </c>
     </row>
     <row r="15">
@@ -684,13 +684,13 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>6.203789973888749</v>
+        <v>3.830188535621611</v>
       </c>
       <c r="D15" t="n">
-        <v>2.069059665242438</v>
+        <v>1.962596700803358</v>
       </c>
       <c r="E15" t="n">
-        <v>14.05552423271236</v>
+        <v>8.21075264473329</v>
       </c>
     </row>
     <row r="16">
@@ -701,13 +701,13 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>6.151247439233878</v>
+        <v>3.944362221644016</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8700556024477172</v>
+        <v>1.633457232362763</v>
       </c>
       <c r="E16" t="n">
-        <v>14.00863237921378</v>
+        <v>8.178777427084865</v>
       </c>
     </row>
     <row r="17">
@@ -718,13 +718,13 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>6.087556708946686</v>
+        <v>3.907832339297824</v>
       </c>
       <c r="D17" t="n">
-        <v>0.56017547751703</v>
+        <v>0.9069630039691361</v>
       </c>
       <c r="E17" t="n">
-        <v>14.46836756712724</v>
+        <v>8.395343799053986</v>
       </c>
     </row>
     <row r="18">
@@ -735,13 +735,13 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>6.064159626381498</v>
+        <v>3.869295595706196</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2280575701626303</v>
+        <v>-0.1374134823605665</v>
       </c>
       <c r="E18" t="n">
-        <v>14.35688141571183</v>
+        <v>8.390456777634949</v>
       </c>
     </row>
     <row r="19">
@@ -752,13 +752,13 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>6.156098899253257</v>
+        <v>3.900514804710857</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5916137758930876</v>
+        <v>0.01904213128491833</v>
       </c>
       <c r="E19" t="n">
-        <v>14.71925356196701</v>
+        <v>8.675144473929143</v>
       </c>
     </row>
     <row r="20">
@@ -769,13 +769,13 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>5.972101842355398</v>
+        <v>3.849040113610635</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3248492833437174</v>
+        <v>0.4595681123539536</v>
       </c>
       <c r="E20" t="n">
-        <v>14.17440967383386</v>
+        <v>8.639002345687908</v>
       </c>
     </row>
     <row r="21">
@@ -786,13 +786,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>6.298214609974625</v>
+        <v>3.945565585989047</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.034272526608184</v>
+        <v>0.4493284304179614</v>
       </c>
       <c r="E21" t="n">
-        <v>14.49957502304193</v>
+        <v>8.332535844734924</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/batch_batch1_testing_batchdata_noisy.xlsx
+++ b/examples/data/batch_batch1_testing_batchdata_noisy.xlsx
@@ -463,13 +463,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4916854829779206</v>
+        <v>0.2607254681253148</v>
       </c>
       <c r="D2" t="n">
-        <v>51.53814122518933</v>
+        <v>86.58219519754195</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1605476026824219</v>
+        <v>-0.1942723045746027</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5903366173651952</v>
+        <v>0.1433164667791786</v>
       </c>
       <c r="D3" t="n">
-        <v>47.04477903809251</v>
+        <v>86.30063490751486</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2840161113617594</v>
+        <v>0.476129155190708</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6482847852647085</v>
+        <v>0.3465042366471831</v>
       </c>
       <c r="D4" t="n">
-        <v>47.05967344784042</v>
+        <v>82.40531563989296</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5508174243493321</v>
+        <v>-0.04628245459839353</v>
       </c>
     </row>
     <row r="5">
@@ -514,13 +514,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8139306930788575</v>
+        <v>0.6606660649026204</v>
       </c>
       <c r="D5" t="n">
-        <v>42.7370915565283</v>
+        <v>81.35114221861005</v>
       </c>
       <c r="E5" t="n">
-        <v>1.254679736710638</v>
+        <v>1.08615643158139</v>
       </c>
     </row>
     <row r="6">
@@ -531,13 +531,13 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>1.221337463668168</v>
+        <v>0.7065939299161841</v>
       </c>
       <c r="D6" t="n">
-        <v>38.64314332523863</v>
+        <v>76.91383571899529</v>
       </c>
       <c r="E6" t="n">
-        <v>2.187091025177575</v>
+        <v>1.274202711743322</v>
       </c>
     </row>
     <row r="7">
@@ -548,13 +548,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>1.560251443237467</v>
+        <v>1.28180055173064</v>
       </c>
       <c r="D7" t="n">
-        <v>33.47021790608454</v>
+        <v>67.91530749171102</v>
       </c>
       <c r="E7" t="n">
-        <v>3.106015921512773</v>
+        <v>2.284827841017134</v>
       </c>
     </row>
     <row r="8">
@@ -565,13 +565,13 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>2.039654110771267</v>
+        <v>1.758742759491183</v>
       </c>
       <c r="D8" t="n">
-        <v>25.64101013820287</v>
+        <v>61.06153896467075</v>
       </c>
       <c r="E8" t="n">
-        <v>4.333384461336562</v>
+        <v>3.926810799987647</v>
       </c>
     </row>
     <row r="9">
@@ -582,13 +582,13 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>2.559225855075067</v>
+        <v>2.47667628920597</v>
       </c>
       <c r="D9" t="n">
-        <v>20.2378741059077</v>
+        <v>49.70335667660956</v>
       </c>
       <c r="E9" t="n">
-        <v>5.017146462733881</v>
+        <v>6.053340818471353</v>
       </c>
     </row>
     <row r="10">
@@ -599,13 +599,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>2.754254870925581</v>
+        <v>3.737763327836271</v>
       </c>
       <c r="D10" t="n">
-        <v>15.09232158017083</v>
+        <v>35.31637407837282</v>
       </c>
       <c r="E10" t="n">
-        <v>5.989044024713238</v>
+        <v>8.534983569276299</v>
       </c>
     </row>
     <row r="11">
@@ -616,13 +616,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>3.144434948757379</v>
+        <v>4.534069844931228</v>
       </c>
       <c r="D11" t="n">
-        <v>10.00602065502239</v>
+        <v>22.66025193514278</v>
       </c>
       <c r="E11" t="n">
-        <v>6.722171313932866</v>
+        <v>10.05582949964687</v>
       </c>
     </row>
     <row r="12">
@@ -633,13 +633,13 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>3.453759085923031</v>
+        <v>5.1494741835322</v>
       </c>
       <c r="D12" t="n">
-        <v>7.036470305555672</v>
+        <v>13.464938499321</v>
       </c>
       <c r="E12" t="n">
-        <v>7.295613231912729</v>
+        <v>12.63546500906762</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>3.692560634296318</v>
+        <v>5.515955709005588</v>
       </c>
       <c r="D13" t="n">
-        <v>3.973489613551741</v>
+        <v>6.428221690063658</v>
       </c>
       <c r="E13" t="n">
-        <v>7.912098565888122</v>
+        <v>13.58120135569235</v>
       </c>
     </row>
     <row r="14">
@@ -667,13 +667,13 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>3.763622124570412</v>
+        <v>5.891405471023436</v>
       </c>
       <c r="D14" t="n">
-        <v>1.528318616566812</v>
+        <v>1.799849383697175</v>
       </c>
       <c r="E14" t="n">
-        <v>8.124231356006836</v>
+        <v>13.81942060023141</v>
       </c>
     </row>
     <row r="15">
@@ -684,13 +684,13 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>3.830188535621611</v>
+        <v>6.204151511967738</v>
       </c>
       <c r="D15" t="n">
-        <v>1.962596700803358</v>
+        <v>2.064064766438373</v>
       </c>
       <c r="E15" t="n">
-        <v>8.21075264473329</v>
+        <v>14.05634130155329</v>
       </c>
     </row>
     <row r="16">
@@ -701,13 +701,13 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>3.944362221644016</v>
+        <v>6.151354468560618</v>
       </c>
       <c r="D16" t="n">
-        <v>1.633457232362763</v>
+        <v>0.8685729518182065</v>
       </c>
       <c r="E16" t="n">
-        <v>8.178777427084865</v>
+        <v>14.00885007520229</v>
       </c>
     </row>
     <row r="17">
@@ -718,13 +718,13 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>3.907832339297824</v>
+        <v>6.087595245359159</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9069630039691361</v>
+        <v>0.5595399427041753</v>
       </c>
       <c r="E17" t="n">
-        <v>8.395343799053986</v>
+        <v>14.46848619196331</v>
       </c>
     </row>
     <row r="18">
@@ -735,13 +735,13 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>3.869295595706196</v>
+        <v>6.064169183558346</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1374134823605665</v>
+        <v>0.2278001058661843</v>
       </c>
       <c r="E18" t="n">
-        <v>8.390456777634949</v>
+        <v>14.3569248561045</v>
       </c>
     </row>
     <row r="19">
@@ -752,13 +752,13 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>3.900514804710857</v>
+        <v>6.156105490396352</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01904213128491833</v>
+        <v>0.591496204033632</v>
       </c>
       <c r="E19" t="n">
-        <v>8.675144473929143</v>
+        <v>14.71930547127727</v>
       </c>
     </row>
     <row r="20">
@@ -769,13 +769,13 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>3.849040113610635</v>
+        <v>5.972084422311925</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4595681123539536</v>
+        <v>-0.3248325372402409</v>
       </c>
       <c r="E20" t="n">
-        <v>8.639002345687908</v>
+        <v>14.17439222839785</v>
       </c>
     </row>
     <row r="21">
@@ -786,13 +786,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>3.945565585989047</v>
+        <v>6.298229371678133</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4493284304179614</v>
+        <v>-1.034180013351336</v>
       </c>
       <c r="E21" t="n">
-        <v>8.332535844734924</v>
+        <v>14.49958793908093</v>
       </c>
     </row>
   </sheetData>
